--- a/data/trans_orig/P34C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31D56B1-0194-4DAC-90C5-53364F6005ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60E01CA-1720-4C23-B727-86B082BC93B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{382A0A52-068D-4AB1-9F7D-062E3428D0FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D68FDE9-5098-41DD-83AE-F05C6946DAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="265">
   <si>
     <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,39%)</t>
   </si>
@@ -71,784 +71,763 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>17,89%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>70,68%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1263,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38D799B-9A91-4FFF-A1E8-07E6D197724E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4722F5-071B-4878-AC5D-7A9B660D2BDE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1573,10 +1552,10 @@
         <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,7 +1710,7 @@
         <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,13 +1725,13 @@
         <v>20048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -1761,13 +1740,13 @@
         <v>17248</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -1776,13 +1755,13 @@
         <v>37295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,10 +1779,10 @@
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -1812,13 +1791,13 @@
         <v>17972</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -1827,13 +1806,13 @@
         <v>32227</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,13 +1827,13 @@
         <v>27658</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -1863,13 +1842,13 @@
         <v>39959</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -1878,13 +1857,13 @@
         <v>67617</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1878,13 @@
         <v>126088</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>222</v>
@@ -1914,13 +1893,13 @@
         <v>145023</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>355</v>
@@ -1929,13 +1908,13 @@
         <v>271112</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,7 +1970,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2003,13 +1982,13 @@
         <v>16218</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2018,13 +1997,13 @@
         <v>20667</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -2033,13 +2012,13 @@
         <v>36884</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,13 +2033,13 @@
         <v>12820</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2069,13 +2048,13 @@
         <v>14102</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2084,13 +2063,13 @@
         <v>26921</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2084,13 @@
         <v>21693</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -2120,13 +2099,13 @@
         <v>21760</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -2135,13 +2114,13 @@
         <v>43453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2135,13 @@
         <v>42271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -2171,13 +2150,13 @@
         <v>62490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -2186,13 +2165,13 @@
         <v>104761</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2186,13 @@
         <v>310987</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -2222,13 +2201,13 @@
         <v>273229</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>661</v>
@@ -2237,13 +2216,13 @@
         <v>584217</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2278,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2311,13 +2290,13 @@
         <v>7804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2326,13 +2305,13 @@
         <v>2268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2341,13 +2320,13 @@
         <v>10072</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2341,13 @@
         <v>11763</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2377,13 +2356,13 @@
         <v>5464</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -2392,13 +2371,13 @@
         <v>17227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2392,13 @@
         <v>23737</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -2428,13 +2407,13 @@
         <v>24328</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -2443,13 +2422,13 @@
         <v>48065</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2443,13 @@
         <v>70529</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -2479,13 +2458,13 @@
         <v>65984</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -2494,13 +2473,13 @@
         <v>136513</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2494,13 @@
         <v>264425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>307</v>
@@ -2530,13 +2509,13 @@
         <v>219294</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>543</v>
@@ -2545,13 +2524,13 @@
         <v>483719</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2586,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2619,13 +2598,13 @@
         <v>10535</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2634,13 +2613,13 @@
         <v>9885</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -2649,13 +2628,13 @@
         <v>20420</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2649,13 @@
         <v>9896</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -2685,13 +2664,13 @@
         <v>12000</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -2700,13 +2679,13 @@
         <v>21896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2700,13 @@
         <v>27736</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -2736,13 +2715,13 @@
         <v>19907</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -2754,10 +2733,10 @@
         <v>37</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2751,13 @@
         <v>61161</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>91</v>
@@ -2787,13 +2766,13 @@
         <v>66654</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>150</v>
@@ -2802,13 +2781,13 @@
         <v>127815</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2802,13 @@
         <v>368197</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>517</v>
@@ -2838,13 +2817,13 @@
         <v>387395</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>881</v>
@@ -2853,13 +2832,13 @@
         <v>755592</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2906,13 @@
         <v>46781</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>78</v>
@@ -2942,13 +2921,13 @@
         <v>40141</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="M34" s="7">
         <v>136</v>
@@ -2957,13 +2936,13 @@
         <v>86921</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2957,13 @@
         <v>59458</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>115</v>
@@ -2993,13 +2972,13 @@
         <v>54632</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>187</v>
@@ -3008,13 +2987,13 @@
         <v>114090</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3008,13 @@
         <v>89770</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>151</v>
@@ -3044,13 +3023,13 @@
         <v>88184</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>238</v>
@@ -3059,13 +3038,13 @@
         <v>177955</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3059,13 @@
         <v>203814</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>334</v>
@@ -3095,13 +3074,13 @@
         <v>238031</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>526</v>
@@ -3110,13 +3089,13 @@
         <v>441845</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3110,13 @@
         <v>1102530</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>1491</v>
@@ -3146,13 +3125,13 @@
         <v>1060604</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>2532</v>
@@ -3161,13 +3140,13 @@
         <v>2163135</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3202,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60E01CA-1720-4C23-B727-86B082BC93B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED9F57B-7B09-4E0B-9911-387F86A39F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D68FDE9-5098-41DD-83AE-F05C6946DAEB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0D8AFB9-6E04-4AEB-8D20-8587C6EA6E29}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>5,76%</t>
@@ -203,7 +203,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,87%</t>
@@ -335,7 +335,7 @@
     <t>68,15%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,01%</t>
@@ -461,7 +461,7 @@
     <t>76,22%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -1242,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4722F5-071B-4878-AC5D-7A9B660D2BDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A00C9E-9B8C-40D6-A2F3-9D91A9C598CD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED9F57B-7B09-4E0B-9911-387F86A39F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B2B28B-9643-40C6-ABC4-6A67C576FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0D8AFB9-6E04-4AEB-8D20-8587C6EA6E29}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{29851D21-031E-420F-9BA5-AFB25479CC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="265">
-  <si>
-    <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="304">
+  <si>
+    <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,766 +68,883 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>5,76%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1242,8 +1359,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A00C9E-9B8C-40D6-A2F3-9D91A9C598CD}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195D823-C18B-446B-A125-D6117C7602B4}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1519,13 +1636,13 @@
         <v>2196</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1534,13 +1651,13 @@
         <v>2944</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1549,13 +1666,13 @@
         <v>5140</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,7 +1684,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>32833</v>
+        <v>32834</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -1582,7 +1699,7 @@
         <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>35661</v>
+        <v>35662</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -1611,118 +1728,118 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
+      <c r="B9" s="5">
+        <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>44898</v>
+        <v>55821</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="I9" s="7">
-        <v>49714</v>
+        <v>81019</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="N9" s="7">
-        <v>94613</v>
+        <v>136840</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>117</v>
+      </c>
+      <c r="D10" s="7">
+        <v>100720</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7">
+        <v>243</v>
+      </c>
+      <c r="I10" s="7">
+        <v>130733</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="7">
+        <v>360</v>
+      </c>
+      <c r="N10" s="7">
+        <v>231452</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>9637</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6248</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="7">
-        <v>30</v>
-      </c>
-      <c r="N10" s="7">
-        <v>15885</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7">
-        <v>20048</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>65</v>
@@ -1734,10 +1851,10 @@
         <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>17248</v>
+        <v>6248</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>68</v>
@@ -1749,10 +1866,10 @@
         <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>37295</v>
+        <v>15885</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>71</v>
@@ -1761,1462 +1878,1768 @@
         <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>14255</v>
+        <v>20048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>17972</v>
+        <v>17248</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N12" s="7">
-        <v>32227</v>
+        <v>37295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>27658</v>
+        <v>14255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>39959</v>
+        <v>17972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>67617</v>
+        <v>32227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="7">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>126088</v>
+        <v>27658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>145023</v>
+        <v>39959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="7">
         <v>94</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="7">
-        <v>355</v>
-      </c>
       <c r="N14" s="7">
-        <v>271112</v>
+        <v>67617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
+      <c r="B15" s="5">
+        <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="D15" s="7">
-        <v>197685</v>
+        <v>126088</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>226450</v>
+        <v>145024</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7">
-        <v>591</v>
+        <v>355</v>
       </c>
       <c r="N15" s="7">
-        <v>424135</v>
+        <v>271112</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="D16" s="7">
-        <v>16218</v>
+        <v>351662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>616</v>
       </c>
       <c r="I16" s="7">
-        <v>20667</v>
+        <v>364179</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
-        <v>64</v>
+        <v>1011</v>
       </c>
       <c r="N16" s="7">
-        <v>36884</v>
+        <v>715841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="5">
-        <v>4</v>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>611</v>
       </c>
       <c r="D17" s="7">
-        <v>12820</v>
+        <v>549347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>991</v>
       </c>
       <c r="I17" s="7">
-        <v>14102</v>
+        <v>590629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>1602</v>
       </c>
       <c r="N17" s="7">
-        <v>26921</v>
+        <v>1139976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>21693</v>
+        <v>16218</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="7">
+        <v>40</v>
+      </c>
+      <c r="I18" s="7">
+        <v>20667</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7">
         <v>64</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="7">
-        <v>43</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21760</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="7">
-        <v>65</v>
-      </c>
       <c r="N18" s="7">
-        <v>43453</v>
+        <v>36884</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>42271</v>
+        <v>12820</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>62490</v>
+        <v>14102</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="7">
+        <v>47</v>
+      </c>
+      <c r="N19" s="7">
+        <v>26921</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" s="7">
-        <v>131</v>
-      </c>
-      <c r="N19" s="7">
-        <v>104761</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>310987</v>
+        <v>21693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="I20" s="7">
-        <v>273229</v>
+        <v>21760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>661</v>
+        <v>65</v>
       </c>
       <c r="N20" s="7">
-        <v>584217</v>
+        <v>43453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
+      <c r="B21" s="5">
+        <v>2</v>
       </c>
       <c r="C21" s="7">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7">
-        <v>403988</v>
+        <v>42271</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>585</v>
+        <v>88</v>
       </c>
       <c r="I21" s="7">
-        <v>392247</v>
+        <v>62490</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
-        <v>968</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>796236</v>
+        <v>104761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="D22" s="7">
-        <v>7804</v>
+        <v>310987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>384</v>
       </c>
       <c r="I22" s="7">
-        <v>2268</v>
+        <v>273229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>661</v>
       </c>
       <c r="N22" s="7">
-        <v>10072</v>
+        <v>584217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>578</v>
       </c>
       <c r="D23" s="7">
-        <v>11763</v>
+        <v>632131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>927</v>
       </c>
       <c r="I23" s="7">
-        <v>5464</v>
+        <v>664663</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
-        <v>21</v>
+        <v>1505</v>
       </c>
       <c r="N23" s="7">
-        <v>17227</v>
+        <v>1296794</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="5">
+      <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>961</v>
       </c>
       <c r="D24" s="7">
-        <v>23737</v>
+        <v>1036119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7">
-        <v>32</v>
+        <v>1512</v>
       </c>
       <c r="I24" s="7">
-        <v>24328</v>
+        <v>1056910</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
-        <v>48</v>
+        <v>2473</v>
       </c>
       <c r="N24" s="7">
-        <v>48065</v>
+        <v>2093030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7804</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="C25" s="7">
-        <v>59</v>
-      </c>
-      <c r="D25" s="7">
-        <v>70529</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="7">
-        <v>86</v>
-      </c>
       <c r="I25" s="7">
-        <v>65984</v>
+        <v>2268</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>171</v>
       </c>
       <c r="M25" s="7">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>136513</v>
+        <v>10072</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="7">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>264425</v>
+        <v>11763</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>176</v>
       </c>
       <c r="H26" s="7">
-        <v>307</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7">
-        <v>219294</v>
+        <v>5464</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>21</v>
+      </c>
+      <c r="N26" s="7">
+        <v>17227</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="M26" s="7">
-        <v>543</v>
-      </c>
-      <c r="N26" s="7">
-        <v>483719</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="5">
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="D27" s="7">
-        <v>378258</v>
+        <v>23737</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="I27" s="7">
-        <v>317338</v>
+        <v>24328</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
-        <v>764</v>
+        <v>48</v>
       </c>
       <c r="N27" s="7">
-        <v>695596</v>
+        <v>48065</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7">
-        <v>10535</v>
+        <v>70529</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="7">
-        <v>9885</v>
+        <v>65984</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M28" s="7">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="N28" s="7">
-        <v>20420</v>
+        <v>136513</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="D29" s="7">
-        <v>9896</v>
+        <v>264425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="I29" s="7">
-        <v>12000</v>
+        <v>219294</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
-        <v>28</v>
+        <v>543</v>
       </c>
       <c r="N29" s="7">
-        <v>21896</v>
+        <v>483719</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="D30" s="7">
-        <v>27736</v>
+        <v>346755</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
-        <v>33</v>
+        <v>609</v>
       </c>
       <c r="I30" s="7">
-        <v>19907</v>
+        <v>552800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
-        <v>64</v>
+        <v>952</v>
       </c>
       <c r="N30" s="7">
-        <v>47643</v>
+        <v>899555</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="5">
-        <v>2</v>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>59</v>
+        <v>672</v>
       </c>
       <c r="D31" s="7">
-        <v>61161</v>
+        <v>725013</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
-        <v>91</v>
+        <v>1044</v>
       </c>
       <c r="I31" s="7">
-        <v>66654</v>
+        <v>870138</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="M31" s="7">
-        <v>150</v>
+        <v>1716</v>
       </c>
       <c r="N31" s="7">
-        <v>127815</v>
+        <v>1595152</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="B32" s="5">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10535</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>364</v>
-      </c>
-      <c r="D32" s="7">
-        <v>368197</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>18</v>
+      </c>
+      <c r="I32" s="7">
+        <v>9885</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H32" s="7">
-        <v>517</v>
-      </c>
-      <c r="I32" s="7">
-        <v>387395</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>29</v>
+      </c>
+      <c r="N32" s="7">
+        <v>20420</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M32" s="7">
-        <v>881</v>
-      </c>
-      <c r="N32" s="7">
-        <v>755592</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="5">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7">
+        <v>9896</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="7">
+        <v>19</v>
+      </c>
+      <c r="I33" s="7">
+        <v>12000</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" s="7">
+        <v>28</v>
+      </c>
+      <c r="N33" s="7">
+        <v>21896</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5">
         <v>3</v>
       </c>
-      <c r="C33" s="7">
-        <v>474</v>
-      </c>
-      <c r="D33" s="7">
-        <v>477525</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="7">
-        <v>678</v>
-      </c>
-      <c r="I33" s="7">
-        <v>495841</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1152</v>
-      </c>
-      <c r="N33" s="7">
-        <v>973366</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5">
-        <v>5</v>
-      </c>
       <c r="C34" s="7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D34" s="7">
-        <v>46781</v>
+        <v>27736</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="H34" s="7">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I34" s="7">
-        <v>40141</v>
+        <v>19907</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="N34" s="7">
-        <v>86921</v>
+        <v>47643</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="7">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D35" s="7">
-        <v>59458</v>
+        <v>61161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I35" s="7">
-        <v>54632</v>
+        <v>66654</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="N35" s="7">
-        <v>114090</v>
+        <v>127815</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="7">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="D36" s="7">
-        <v>89770</v>
+        <v>368197</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
-        <v>151</v>
+        <v>517</v>
       </c>
       <c r="I36" s="7">
-        <v>88184</v>
+        <v>387395</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
-        <v>238</v>
+        <v>881</v>
       </c>
       <c r="N36" s="7">
-        <v>177955</v>
+        <v>755592</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>192</v>
+        <v>528</v>
       </c>
       <c r="D37" s="7">
-        <v>203814</v>
+        <v>483973</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
-        <v>334</v>
+        <v>878</v>
       </c>
       <c r="I37" s="7">
-        <v>238031</v>
+        <v>648151</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
-        <v>526</v>
+        <v>1406</v>
       </c>
       <c r="N37" s="7">
-        <v>441845</v>
+        <v>1132124</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="5">
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1002</v>
+      </c>
+      <c r="D38" s="7">
+        <v>961498</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1556</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1143992</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2558</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2105490</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7">
+        <v>58</v>
+      </c>
+      <c r="D39" s="7">
+        <v>46781</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="7">
+        <v>78</v>
+      </c>
+      <c r="I39" s="7">
+        <v>40141</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M39" s="7">
+        <v>136</v>
+      </c>
+      <c r="N39" s="7">
+        <v>86921</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7">
+        <v>72</v>
+      </c>
+      <c r="D40" s="7">
+        <v>59458</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="7">
+        <v>115</v>
+      </c>
+      <c r="I40" s="7">
+        <v>54632</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" s="7">
+        <v>187</v>
+      </c>
+      <c r="N40" s="7">
+        <v>114090</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
+        <v>87</v>
+      </c>
+      <c r="D41" s="7">
+        <v>89770</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H41" s="7">
+        <v>151</v>
+      </c>
+      <c r="I41" s="7">
+        <v>88184</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M41" s="7">
+        <v>238</v>
+      </c>
+      <c r="N41" s="7">
+        <v>177955</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7">
+        <v>192</v>
+      </c>
+      <c r="D42" s="7">
+        <v>203814</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H42" s="7">
+        <v>334</v>
+      </c>
+      <c r="I42" s="7">
+        <v>238031</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M42" s="7">
+        <v>526</v>
+      </c>
+      <c r="N42" s="7">
+        <v>441845</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5">
         <v>1</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C43" s="7">
         <v>1041</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1102530</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" s="7">
         <v>1491</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1060604</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M43" s="7">
         <v>2532</v>
       </c>
-      <c r="N38" s="7">
-        <v>2163135</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
+      <c r="N43" s="7">
+        <v>2163134</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1913</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1870343</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" s="7">
+        <v>3177</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2310811</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" s="7">
+        <v>5090</v>
+      </c>
+      <c r="N44" s="7">
+        <v>4181153</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="7">
-        <v>1450</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1502354</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="7">
-        <v>2169</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1481591</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3619</v>
-      </c>
-      <c r="N39" s="7">
-        <v>2983946</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>264</v>
+      <c r="C45" s="7">
+        <v>3363</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3372697</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="7">
+        <v>5346</v>
+      </c>
+      <c r="I45" s="7">
+        <v>3792402</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M45" s="7">
+        <v>8709</v>
+      </c>
+      <c r="N45" s="7">
+        <v>7165098</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
